--- a/ResultadoEleicoesDistritos/ÉVORA_VILA VIÇOSA.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_VILA VIÇOSA.xlsx
@@ -597,28 +597,28 @@
         <v>1969</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="J2" t="n">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -627,34 +627,34 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S2" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="T2" t="n">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>1256</v>
+        <v>1274</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
